--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_014.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_014.xlsx
@@ -31,322 +31,325 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295004AK2.02) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Batteries</t>
-  </si>
-  <si>
-    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295016AA1.10) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295025EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RCIC operation </t>
-  </si>
-  <si>
-    <t>(295027EK2.03) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
-  </si>
-  <si>
-    <t>(295001AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
+    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.11) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual loop flow(s)</t>
+  </si>
+  <si>
+    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
+  </si>
+  <si>
+    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
+  </si>
+  <si>
+    <t>(295019AA1.02) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) System valves</t>
+  </si>
+  <si>
+    <t>(295037EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Cold shutdown boron weight</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(600000AA2.03) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Fire alarm</t>
+  </si>
+  <si>
+    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
   </si>
   <si>
     <t>(295024EK2.21) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
   </si>
   <si>
-    <t>(600000AA2.12) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Location of vital equipment within fire zone</t>
-  </si>
-  <si>
-    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295021AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Increasing drywell cooling</t>
-  </si>
-  <si>
-    <t>(295019AK2.14) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Plant air systems</t>
-  </si>
-  <si>
-    <t>(295018AA2.04) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System flow</t>
-  </si>
-  <si>
-    <t>(295010AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell temperature increase</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
-  </si>
-  <si>
-    <t>(500000EK2.09) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell nitrogen purge</t>
-  </si>
-  <si>
-    <t>(295017AA2.01) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Offsite release rate</t>
-  </si>
-  <si>
-    <t>(295029EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(262001K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generators</t>
-  </si>
-  <si>
-    <t>(263000K4.03) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Ground detection</t>
-  </si>
-  <si>
-    <t>(209002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(209001A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC failures</t>
-  </si>
-  <si>
-    <t>(259002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Controller operation</t>
-  </si>
-  <si>
-    <t>(205000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup</t>
-  </si>
-  <si>
-    <t>(215003A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) IRM back panel switches</t>
-  </si>
-  <si>
-    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
-  </si>
-  <si>
-    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
-  </si>
-  <si>
-    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
-  </si>
-  <si>
-    <t>(203000K1.20) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Service water</t>
-  </si>
-  <si>
-    <t>(400000K4.05) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Surge tank level control</t>
-  </si>
-  <si>
-    <t>(300000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Heat exchangers and condensers</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (291004K1.06) PUMPS (CFR: 41.3) (CENTRIFUGAL) Need for net positive suction head (NPSH); effects of loss of suction</t>
-  </si>
-  <si>
-    <t>(217000A2.15) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
-  </si>
-  <si>
-    <t>(215005K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) OPRM operation</t>
-  </si>
-  <si>
-    <t>(212000K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(218000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) ADS valve pneumatic supply pressure</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(261000K2.03) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system initiation logic</t>
-  </si>
-  <si>
-    <t>(223002A4.08) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Group isolations</t>
-  </si>
-  <si>
-    <t>(262001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(263000K4.01) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Manual/automatic transfers</t>
-  </si>
-  <si>
-    <t>(209002K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Plant ventilation systems (HPCS room coolers)</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(271000K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(256000A4.05) Ability to manually operate and/or monitor the (SF2 CDS) CONDENSATE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System flow</t>
-  </si>
-  <si>
-    <t>(288000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 PVS) PLANT VENTILATION SYSTEMS and the following systems: (CFR: 41.4 / 41.5 / 45.7 / 45.8) Standby gas treatment system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(290002K4.01) Knowledge of (SF4 RVI) REACTOR VESSEL INTERNALS design features and/or interlocks that provide for the following: (CFR: 41.7) 2/3 core coverage following a design-basis LOCA </t>
-  </si>
-  <si>
-    <t>(202001K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Reactor water level</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (291004K1.07) PUMPS (CFR: 41.3) (CENTRIFUGAL) Starting current and operating current interpretation</t>
+    <t>(295038EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Control room heating, ventilation, and air conditioning</t>
+  </si>
+  <si>
+    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295025EK3.10) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295018AK2.06) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(295031EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295023AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Fuel positioning</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295035EK2.04) Knowledge of the relationship between the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Blow-out panels</t>
+  </si>
+  <si>
+    <t>(295032EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(295002AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Loss of heat sink</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295013AA2.03) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Open/leaking Safety relief valve</t>
+  </si>
+  <si>
+    <t>(400000K3.19) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(217000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine trip throttle valve reset</t>
+  </si>
+  <si>
+    <t>(215004K4.06) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) IRM/SRMS interlock</t>
+  </si>
+  <si>
+    <t>(259002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor feedwater flow input</t>
+  </si>
+  <si>
+    <t>(209002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(209001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Testable check valve operation</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
+  </si>
+  <si>
+    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
+  </si>
+  <si>
+    <t>(262002K3.13) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(203000A4.01) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Pumps</t>
+  </si>
+  <si>
+    <t>(205000K4.07) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) SDC minimum flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Instrument air system </t>
+  </si>
+  <si>
+    <t>(212000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(510000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(262001A3.06) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Tap changers</t>
+  </si>
+  <si>
+    <t>(223002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Secondary containment temperature</t>
+  </si>
+  <si>
+    <t>(264000A2.09) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of safety bus</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (291008K1.02) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Local indication that breaker is open, closed or tripped</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(400000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(217000A4.12) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) </t>
+  </si>
+  <si>
+    <t>(215004K4.04) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Changing detector position</t>
+  </si>
+  <si>
+    <t>(259002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
+  </si>
+  <si>
+    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(510001K2.03) (SF8 CWS*) CIRCULATING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Cooling tower fans</t>
+  </si>
+  <si>
+    <t>(230000K3.02) Knowledge of the effect that a loss or malfunction of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(271000A4.01) Ability to manually operate and/or monitor the (SF9 OG) OFFGAS SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset system isolations</t>
+  </si>
+  <si>
+    <t>(290001K4.02) Knowledge of (SF5 SC) SECONDARY CONTAINMENT design features and/or interlocks that provide for the following: (CFR: 41.7) Protection against overpressurization</t>
+  </si>
+  <si>
+    <t>(201003K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(223001K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Standby gas treatment system or filtration, recirculation and ventilation system</t>
+  </si>
+  <si>
+    <t>(216000K5.11) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Indicated vessel temperature response during rapid heatups or cooldowns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(268000A3.02) Ability to monitor automatic operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.7 / 45.7) Primary/secondary containment sump pump operation </t>
+  </si>
+  <si>
+    <t>(290002K3.16) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Residual heat removal system</t>
   </si>
   <si>
     <t>(204000A2.03) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Flow control valve failure</t>
   </si>
   <si>
-    <t>(230000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) Heat exchanger operation</t>
-  </si>
-  <si>
-    <t>(201001K3.01) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Recirculation pumps</t>
-  </si>
-  <si>
-    <t>(259001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.5 / 45.5) Feedwater control valve position</t>
-  </si>
-  <si>
-    <t>(290003A3.01) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/reconfiguration</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292006K1.04) FISSION PRODUCT POISONS (CFR: 41.1) Describe the removal of xenon-135</t>
+  </si>
+  <si>
+    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
+  </si>
+  <si>
+    <t>(292004K1.04) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain Doppler broadening and self-shielding</t>
+  </si>
+  <si>
+    <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
+  </si>
+  <si>
+    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
+  </si>
+  <si>
+    <t>(293009K1.05) CORE THERMAL LIMITS (CFR: 41.14) State the reason thermal limits are necessary</t>
+  </si>
+  <si>
+    <t>(700000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator overheating and the required actions</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.07) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
+  </si>
+  <si>
+    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295007AA2.02) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power </t>
+  </si>
+  <si>
+    <t>(209002A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Core spray line break</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
+  </si>
+  <si>
+    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(245000A2.07) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of reactor/turbine regulating control system</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
-  </si>
-  <si>
-    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
-  </si>
-  <si>
-    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
-  </si>
-  <si>
-    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
-  </si>
-  <si>
-    <t>(293007K1.02) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe thermal conductivity</t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295005AA2.07) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295036EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Cause of the high water level</t>
-  </si>
-  <si>
-    <t>(209001A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(205000A2.12) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(234000A4.03) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Mode switch</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>A4</t>
   </si>
   <si>
     <t>K4</t>
@@ -361,9 +364,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>295038</t>
   </si>
   <si>
     <t>295005</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295001</t>
+    <t>295018</t>
   </si>
   <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
     <t>295023</t>
   </si>
   <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
     <t>295014</t>
   </si>
   <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
     <t>295011</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
     <t>295017</t>
   </si>
   <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
     <t>295007</t>
   </si>
   <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295036</t>
+    <t>215001</t>
   </si>
   <si>
     <t>245000</t>
   </si>
   <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>239001</t>
+    <t>201005</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="D28" t="s">
         <v>108</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D30" t="s">
         <v>112</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1769,7 +1769,7 @@
         <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
         <v>108</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
         <v>112</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2262,7 +2262,7 @@
         <v>3.5</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2330,7 +2330,7 @@
         <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2364,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
